--- a/testweather.xlsx
+++ b/testweather.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kop48\PycharmProjects\untitled2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\blockchain-explorer\2018-Machine-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CEABF4-C14A-46EB-90F2-124C009CFFAE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8292" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8292"/>
   </bookViews>
   <sheets>
     <sheet name="testweather" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -983,11 +982,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2923"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
